--- a/public/preprocessing/@AlKohler7.xlsx
+++ b/public/preprocessing/@AlKohler7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18542</v>
+        <v>31774</v>
       </c>
       <c r="C2" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['ayo', 'kita', 'sama', 'bantu', 'palusigi', 'dan', 'donggala', 'hari', 'senin', 'oktober', 'kita', 'donasi', 'sambil', 'menonton', 'dewa', 'sisihkan', 'rezek']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['yuuk', 'bantu', 'palusigi', 'donggala', 'senin', 'okt', 'donasi', 'nonton', 'dewa', 'sisihkan', 'rezek']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['yuuk', 'bantu', 'palusigi', 'donggala', 'senin', 'okt', 'donasi', 'nonton', 'dewa', 'sisih', 'rezek']</t>
+          <t>['ayo', 'bantu', 'palusigi', 'donggala', 'senin', 'oktober', 'donasi', 'menonton', 'dewa', 'sisihkan', 'rezek']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['ayo', 'bantu', 'palusigi', 'donggala', 'senin', 'oktober', 'donasi', 'tonton', 'dewa', 'sisih', 'rezek']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18543</v>
+        <v>31775</v>
       </c>
       <c r="C3" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['sekarang', 'tiap', 'kali', 'swafoto', 'tidak', 'usah', 'takut', 'hasilnya', 'cuma', 'muka', 'semua', 'karena', 'sudah', 'punya', 'layar', 'luas', 'in']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['kali', 'selfie', 'takut', 'hasilnya', 'muka', 'udah', 'layar', 'luas', 'in']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['kali', 'selfie', 'takut', 'hasil', 'muka', 'udah', 'layar', 'luas', 'in']</t>
+          <t>['kali', 'swafoto', 'takut', 'hasilnya', 'muka', 'layar', 'luas', 'in']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['kali', 'swafoto', 'takut', 'hasil', 'muka', 'layar', 'luas', 'in']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18544</v>
+        <v>31776</v>
       </c>
       <c r="C4" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['it', 'is', 'look', 'stunning', 'ketika', 'gamming', 'dengan', 'my', 'nebula', 'purple', 'apalagi', 'dengan', 'ram', 'gb', 'gamming', 'jadi', 'makin', 'lah']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['it', 'is', 'look', 'stunning', 'while', 'gamming', 'with', 'my', 'nebula', 'purple', 'ram', 'gb', 'gamming', 'la']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['it', 'is', 'look', 'stunning', 'while', 'gamming', 'with', 'my', 'nebula', 'purple', 'ram', 'gb', 'gamming', 'la']</t>
+          <t>['it', 'is', 'look', 'stunning', 'gamming', 'my', 'nebula', 'purple', 'ram', 'gb', 'gamming']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['it', 'is', 'look', 'stunning', 'gamming', 'my', 'nebula', 'purple', 'ram', 'gb', 'gamming']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18545</v>
+        <v>31777</v>
       </c>
       <c r="C5" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['siap', 'memancarkan', 'pesonamu', 'dengan', 'warna', 'gradasi', 'nebula', 'purple', 'yang', 'dilengkapi', 'inovasi', 'terbaru', 'screen', 'tou']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['memancarkan', 'pesonamu', 'warna', 'gradasi', 'nebula', 'purple', 'dilengkapi', 'inovasi', 'terbaru', 'screen', 'tou']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['pancar', 'pesona', 'warna', 'gradasi', 'nebula', 'purple', 'lengkap', 'inovasi', 'baru', 'screen', 'tou']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18546</v>
+        <v>31778</v>
       </c>
       <c r="C6" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['experience', 'new', 'innovation', 'from', 'indonesia', 'dengan', 'screen', 'touch', 'id', 'and', 'nebula', 'purple', 'colors', 'are', 'kamu']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['experience', 'new', 'innovation', 'from', 'indonesia', 'with', 'screen', 'touch', 'id', 'and', 'nebula', 'purple', 'colors', 'are', 'you']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['experience', 'new', 'innovation', 'from', 'indonesia', 'with', 'screen', 'touch', 'id', 'and', 'nebula', 'purple', 'colors', 'are', 'you']</t>
+          <t>['experience', 'new', 'innovation', 'from', 'indonesia', 'screen', 'touch', 'id', 'and', 'nebula', 'purple', 'colors', 'are']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['experience', 'new', 'innovation', 'from', 'indonesia', 'screen', 'touch', 'id', 'and', 'nebula', 'purple', 'colors', 'are']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18547</v>
+        <v>31779</v>
       </c>
       <c r="C7" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['the', 'new', 'one', 'is', 'coming', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['the', 'new', 'one', 'is', 'coming', 'indonesia']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['the', 'new', 'one', 'is', 'coming', 'indonesia']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18548</v>
+        <v>31780</v>
       </c>
       <c r="C8" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['final', 'federation, of, international, football, association', 'world', 'cup', 'tinggal', 'hari', 'lagi', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['final', 'fifa', 'world', 'cup', 'tinggal', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['final', 'fifa', 'world', 'cup', 'tinggal', 'indonesia']</t>
+          <t>['final', 'federation, of, international, football, association', 'world', 'cup', 'tinggal', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['final', 'federation of international football association', 'world', 'cup', 'tinggal', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18549</v>
+        <v>31781</v>
       </c>
       <c r="C9" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['happy', 'banget', 'mulai', 'hari', 'ini', 'gb', 'sudah', 'bisa', 'preorder', 'go', 'check', 'for', 'more', 'info', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['happy', 'banget', 'gb', 'udah', 'preorder', 'go', 'check', 'for', 'more', 'info']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['happy', 'banget', 'gb', 'udah', 'preorder', 'go', 'check', 'for', 'more', 'info']</t>
+          <t>['happy', 'banget', 'gb', 'preorder', 'go', 'check', 'for', 'more', 'info']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['happy', 'banget', 'gb', 'preorder', 'go', 'check', 'for', 'more', 'info']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18550</v>
+        <v>31782</v>
       </c>
       <c r="C10" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,17 +825,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['now', 'we', 'can', 'enjoy', 'our', 'favorit', 'federation, of, international, football, association', 'worldcup', 'match', 'everywhere', 'using', 'dengan', 'fhd', 'fullview', 'display']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['now', 'we', 'can', 'enjoy', 'our', 'favourite', 'fifa', 'worldcup', 'match', 'everywhere', 'using', 'with', 'fhd', 'fullview', 'display']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['now', 'we', 'can', 'enjoy', 'our', 'favourite', 'fifa', 'worldcup', 'match', 'everywhere', 'using', 'with', 'fhd', 'fullview', 'display']</t>
+          <t>['now', 'we', 'can', 'enjoy', 'our', 'favorit', 'federation, of, international, football, association', 'worldcup', 'match', 'everywhere', 'using', 'fhd', 'fullview', 'display']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['now', 'we', 'can', 'enjoy', 'our', 'favorit', 'federation of international football association', 'worldcup', 'match', 'everywhere', 'using', 'fhd', 'fullview', 'display']</t>
         </is>
       </c>
     </row>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18551</v>
+        <v>31783</v>
       </c>
       <c r="C11" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['be', 'productive', 'person', 'ketika', 'waiting', 'for', 'breakfasting', 'time', 'always', 'captured', 'all', 'my', 'momen', 'using', 'from']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['be', 'productive', 'person', 'while', 'waiting', 'for', 'breakfasting', 'time', 'always', 'captured', 'all', 'my', 'moment', 'using', 'from']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['be', 'productive', 'person', 'while', 'waiting', 'for', 'breakfasting', 'time', 'always', 'captured', 'all', 'my', 'moment', 'using', 'from']</t>
+          <t>['be', 'productive', 'person', 'waiting', 'for', 'breakfasting', 'time', 'always', 'captured', 'all', 'my', 'momen', 'using', 'from']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['be', 'productive', 'person', 'waiting', 'for', 'breakfasting', 'time', 'always', 'captured', 'all', 'my', 'momen', 'using', 'from']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18552</v>
+        <v>31784</v>
       </c>
       <c r="C12" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['me', 'time', 'ala', 'gue', 'ya', 'main', 'game', 'pakai', 'dengan', 'fhd', 'fullview', 'display', 'main', 'game', 'jadi', 'lebih', 'leluasa']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['me', 'time', 'ala', 'gue', 'main', 'game', 'pakai', 'fhd', 'fullview', 'display', 'main', 'game', 'leluasa']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['me', 'time', 'ala', 'gue', 'main', 'game', 'pakai', 'fhd', 'fullview', 'display', 'main', 'game', 'leluasa']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18553</v>
+        <v>31785</v>
       </c>
       <c r="C13" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['ramadan', 'telah', 'tibamaaf', 'lahir', 'batin', 'yaselamat', 'beribadah', 'puasa']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['ramadhan', 'tibamaaf', 'lahir', 'batin', 'yaselamat', 'beribadah', 'puasa']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['ramadhan', 'tibamaaf', 'lahir', 'batin', 'yaselamat', 'ibadah', 'puasa']</t>
+          <t>['ramadan', 'tibamaaf', 'lahir', 'batin', 'yaselamat', 'beribadah', 'puasa']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ramadan', 'tibamaaf', 'lahir', 'batin', 'yaselamat', 'ibadah', 'puasa']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18554</v>
+        <v>31786</v>
       </c>
       <c r="C14" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['do, not', 'be', 'afraid', 'to', 'be', 'different', 'just', 'be', 'the', 'real', 'kamu', 'dengan', 'from', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['dont', 'be', 'afraid', 'to', 'be', 'different', 'just', 'be', 'the', 'real', 'you', 'with', 'from', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['dont', 'be', 'afraid', 'to', 'be', 'different', 'just', 'be', 'the', 'real', 'you', 'with', 'from', 'indonesia']</t>
+          <t>['do, not', 'be', 'afraid', 'to', 'be', 'different', 'just', 'be', 'the', 'real', 'from', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['do not', 'be', 'afraid', 'to', 'be', 'different', 'just', 'be', 'the', 'real', 'from', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18555</v>
+        <v>31787</v>
       </c>
       <c r="C15" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['be', 'keren', 'when', 'using', 'grab', 'it', 'fast', 'at', 'your', 'favorit', 'store', 'right', 'now', 'soalnya', 'this', 'hitam', 'is', 'limited', 'ed']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['be', 'cool', 'when', 'using', 'grab', 'it', 'fast', 'at', 'your', 'favourite', 'store', 'right', 'now', 'because', 'this', 'item', 'is', 'limited', 'ed']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['be', 'cool', 'when', 'using', 'grab', 'it', 'fast', 'at', 'your', 'favourite', 'store', 'right', 'now', 'because', 'this', 'item', 'is', 'limited', 'ed']</t>
+          <t>['be', 'keren', 'when', 'using', 'grab', 'it', 'fast', 'at', 'your', 'favorit', 'store', 'right', 'now', 'this', 'hitam', 'is', 'limited', 'ed']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['be', 'keren', 'when', 'using', 'grab', 'it', 'fast', 'at', 'your', 'favorit', 'store', 'right', 'now', 'this', 'hitam', 'is', 'limited', 'ed']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18556</v>
+        <v>31788</v>
       </c>
       <c r="C16" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['aku', 'penggemar', 'band', 'dewa', 'fan', 'beraat', 'tanggal', 'mei', 'menonton', 'dewa', 'ya']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['penggemar', 'band', 'dewa', 'fans', 'beraat', 'tgl', 'mei', 'nonton', 'dewa']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['gemar', 'band', 'dewa', 'fans', 'beraat', 'tgl', 'mei', 'nonton', 'dewa']</t>
+          <t>['penggemar', 'band', 'dewa', 'fan', 'beraat', 'tanggal', 'mei', 'menonton', 'dewa']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['gemar', 'band', 'dewa', 'fan', 'beraat', 'tanggal', 'mei', 'tonton', 'dewa']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18557</v>
+        <v>31789</v>
       </c>
       <c r="C17" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['life', 'is', 'challenge', 'kick', 'it', 'im', 'keren', 'blue', 'grab', 'yours', 'limited', 'edition', 'on']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['life', 'is', 'challenge', 'kick', 'it', 'im', 'cool', 'blue', 'grab', 'yours', 'limited', 'edition', 'on']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['life', 'is', 'challenge', 'kick', 'it', 'im', 'cool', 'blue', 'grab', 'yours', 'limited', 'edition', 'on']</t>
+          <t>['life', 'is', 'challenge', 'kick', 'it', 'im', 'keren', 'blue', 'grab', 'yours', 'limited', 'edition', 'on']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['life', 'is', 'challenge', 'kick', 'it', 'im', 'keren', 'blue', 'grab', 'yours', 'limited', 'edition', 'on']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18558</v>
+        <v>31790</v>
       </c>
       <c r="C18" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,17 +1153,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['explore', 'your', 'world', 'wider', 'dengan', 'fhd', 'fullview', 'display', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['explore', 'your', 'world', 'wider', 'with', 'fhd', 'fullview', 'display', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['explore', 'your', 'world', 'wider', 'with', 'fhd', 'fullview', 'display', 'indonesia']</t>
+          <t>['explore', 'your', 'world', 'wider', 'fhd', 'fullview', 'display', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['explore', 'your', 'world', 'wider', 'fhd', 'fullview', 'display', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18559</v>
+        <v>31791</v>
       </c>
       <c r="C19" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['tadi', 'malam', 'kemegahan', 'borobudur', 'menjadi', 'saksi', 'hadirnya', 'vivo', 'perfect', 'shot', 'perfect', 'view', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['malam', 'kemegahan', 'borobudur', 'saksi', 'hadirnya', 'vivo', 'perfect', 'shot', 'perfect', 'view', 'indonesia']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['malam', 'megah', 'borobudur', 'saksi', 'hadir', 'vivo', 'perfect', 'shot', 'perfect', 'view', 'indonesia']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18560</v>
+        <v>31792</v>
       </c>
       <c r="C20" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['stay', 'tuned', 'for', 'grand', 'launch', 'at', 'borobudur', 'expand', 'your', 'perfection', 'dengan', 'all', 'new', 'fullview', 'display']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['stay', 'tuned', 'for', 'grand', 'launch', 'at', 'borobudur', 'expand', 'your', 'perfection', 'with', 'all', 'new', 'fullview', 'display']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['stay', 'tuned', 'for', 'grand', 'launch', 'at', 'borobudur', 'expand', 'your', 'perfection', 'with', 'all', 'new', 'fullview', 'display']</t>
+          <t>['stay', 'tuned', 'for', 'grand', 'launch', 'at', 'borobudur', 'expand', 'your', 'perfection', 'all', 'new', 'fullview', 'display']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['stay', 'tuned', 'for', 'grand', 'launch', 'at', 'borobudur', 'expand', 'your', 'perfection', 'all', 'new', 'fullview', 'display']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18561</v>
+        <v>31793</v>
       </c>
       <c r="C21" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['besok', 'grand', 'launch', 'at', 'borobudur', 'jam', 'malam', 'live', 'di', 'televisi', 'nasional', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['besok', 'grand', 'launch', 'at', 'borobudur', 'jam', 'malam', 'live', 'tv', 'nasional', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['besok', 'grand', 'launch', 'at', 'borobudur', 'jam', 'malam', 'live', 'tv', 'nasional', 'indonesia']</t>
+          <t>['besok', 'grand', 'launch', 'at', 'borobudur', 'jam', 'malam', 'live', 'televisi', 'nasional', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['besok', 'grand', 'launch', 'at', 'borobudur', 'jam', 'malam', 'live', 'televisi', 'nasional', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18562</v>
+        <v>31794</v>
       </c>
       <c r="C22" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,17 +1317,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['mau', 'tau', 'keseruan', 'kita', 'di', 'grand', 'launch', 'at', 'borobudurnonton', 'ya', 'pm', 'live', 'di', 'televisi', 'nasional']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['keseruan', 'grand', 'launch', 'at', 'borobudurnonton', 'pm', 'live', 'tv', 'nasional']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['seru', 'grand', 'launch', 'at', 'borobudurnonton', 'pm', 'live', 'tv', 'nasional']</t>
+          <t>['keseruan', 'grand', 'launch', 'at', 'borobudurnonton', 'pm', 'live', 'televisi', 'nasional']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['seru', 'grand', 'launch', 'at', 'borobudurnonton', 'pm', 'live', 'televisi', 'nasional']</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>18563</v>
+        <v>31795</v>
       </c>
       <c r="C23" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,17 +1358,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['be', 'ready', 'to', 'get', 'your', 'perfect', 'shot', 'perfect', 'view', 'dengan', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['be', 'ready', 'to', 'get', 'your', 'perfect', 'shot', 'perfect', 'view', 'with', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['be', 'ready', 'to', 'get', 'your', 'perfect', 'shot', 'perfect', 'view', 'with', 'indonesia']</t>
+          <t>['be', 'ready', 'to', 'get', 'your', 'perfect', 'shot', 'perfect', 'view', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['be', 'ready', 'to', 'get', 'your', 'perfect', 'shot', 'perfect', 'view', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18564</v>
+        <v>31796</v>
       </c>
       <c r="C24" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,15 +1399,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['happy', 'week', 'end', 'all']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['happy', 'week', 'end', 'all']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['happy', 'week', 'end', 'all']</t>
         </is>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18565</v>
+        <v>31797</v>
       </c>
       <c r="C25" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['sunday', 'is', 'happy', 'day', 'take', 'dengan', 'my', 'mp', 'clearer', 'swafoto', 'perfect', 'camera', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['sunday', 'is', 'happy', 'day', 'take', 'with', 'my', 'mp', 'clearer', 'selfie', 'perfect', 'camera', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['sunday', 'is', 'happy', 'day', 'take', 'with', 'my', 'mp', 'clearer', 'selfie', 'perfect', 'camera', 'indonesia']</t>
+          <t>['sunday', 'is', 'happy', 'day', 'take', 'my', 'mp', 'clearer', 'swafoto', 'perfect', 'camera', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['sunday', 'is', 'happy', 'day', 'take', 'my', 'mp', 'clearer', 'swafoto', 'perfect', 'camera', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18566</v>
+        <v>31798</v>
       </c>
       <c r="C26" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['minggu', 'kemarin', 'menonton', 'perform', 'mereka', 'memang', 'legend']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['minggu', 'kemarin', 'nonton', 'perform', 'legend']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['minggu', 'kemarin', 'nonton', 'perform', 'legend']</t>
+          <t>['minggu', 'kemarin', 'menonton', 'perform', 'legend']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['minggu', 'kemarin', 'tonton', 'perform', 'legend']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18567</v>
+        <v>31799</v>
       </c>
       <c r="C27" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['boncabe', 'level', 'pedasnya', 'extreeem', 'jadikan', 'boncabe', 'sebagai', 'penyelamat', 'rasa', 'apapun', 'makanan', 'favorit', 'kamu']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['boncabe', 'level', 'pedasnya', 'extreeem', 'jadikan', 'boncabe', 'penyelamat', 'apapun', 'makanan', 'favorit', 'lo']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['boncabe', 'level', 'pedas', 'extreeem', 'jadi', 'boncabe', 'selamat', 'apa', 'makan', 'favorit', 'lo']</t>
+          <t>['boncabe', 'level', 'pedasnya', 'extreeem', 'jadikan', 'boncabe', 'penyelamat', 'apapun', 'makanan', 'favorit']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['boncabe', 'level', 'pedas', 'extreeem', 'jadi', 'boncabe', 'selamat', 'apa', 'makan', 'favorit']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18568</v>
+        <v>31800</v>
       </c>
       <c r="C28" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['boncabe', 'bisa', 'bikin', 'rasa', 'makanan', 'enak', 'secara', 'instan', 'sudah', 'tabur', 'boncabe', 'hari', 'ini', 'boncabe', 'pecinta']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['boncabe', 'makanan', 'enak', 'instan', 'udah', 'tabur', 'boncabe', 'boncabe', 'lovers']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['boncabe', 'makan', 'enak', 'instan', 'udah', 'tabur', 'boncabe', 'boncabe', 'lovers']</t>
+          <t>['boncabe', 'makanan', 'enak', 'instan', 'tabur', 'boncabe', 'boncabe', 'pecinta']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['boncabe', 'makan', 'enak', 'instan', 'tabur', 'boncabe', 'boncabe', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18569</v>
+        <v>31801</v>
       </c>
       <c r="C29" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['penyelamat', 'rasa', 'makanan', 'kini', 'berada', 'di', 'genggaman', 'tangan', 'makan', 'apa', 'saja', 'dimana', 'saja', 'dan', 'kapan', 'saja', 'kamu', 'harus', 'selalu']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['penyelamat', 'makanan', 'genggaman', 'tangan', 'makan', 'dimana', 'lo']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['selamat', 'makan', 'genggam', 'tangan', 'makan', 'mana', 'lo']</t>
+          <t>['penyelamat', 'makanan', 'genggaman', 'tangan', 'makan', 'dimana']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['selamat', 'makan', 'genggam', 'tangan', 'makan', 'mana']</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18570</v>
+        <v>31802</v>
       </c>
       <c r="C30" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['this', 'is', 'my', 'resolutionshare', 'yours', 'dengan', 'tagar', 'and', 'grab', 'the', 'info']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['this', 'is', 'my', 'resolutionshare', 'yours', 'with', 'hashtag', 'and', 'grab', 'the', 'info']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['this', 'is', 'my', 'resolutionshare', 'yours', 'with', 'hashtag', 'and', 'grab', 'the', 'info']</t>
+          <t>['this', 'is', 'my', 'resolutionshare', 'yours', 'tagar', 'and', 'grab', 'the', 'info']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'my', 'resolutionshare', 'yours', 'tagar', 'and', 'grab', 'the', 'info']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18571</v>
+        <v>31803</v>
       </c>
       <c r="C31" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['enggak', 'cuma', 'buat', 'camilan', 'gue', 'juga', 'suka', 'banget', 'makan', 'masakan', 'bunda', 'pakai', 'boncabe', 'sensasi', 'pedasnya', 'bikin', 'makan', 'makin']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['nggak', 'camilan', 'gue', 'suka', 'banget', 'makan', 'masakan', 'bunda', 'pakai', 'boncabe', 'sensasi', 'pedasnya', 'makan']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['nggak', 'camil', 'gue', 'suka', 'banget', 'makan', 'masakan', 'bunda', 'pakai', 'boncabe', 'sensasi', 'pedas', 'makan']</t>
+          <t>['camilan', 'gue', 'suka', 'banget', 'makan', 'masakan', 'bunda', 'pakai', 'boncabe', 'sensasi', 'pedasnya', 'makan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['camil', 'gue', 'suka', 'banget', 'makan', 'masakan', 'bunda', 'pakai', 'boncabe', 'sensasi', 'pedas', 'makan']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18572</v>
+        <v>31804</v>
       </c>
       <c r="C32" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['new', 'experience', 'sehari', 'jadi', 'karyawan', 'indonesiarasanya', 'seru', 'banget', 'terima, kasih', 'kamu', 'guys']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['new', 'experience', 'sehari', 'karyawan', 'indonesiarasanya', 'seru', 'banget', 'thank', 'you', 'guys']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['new', 'experience', 'hari', 'karyawan', 'indonesiarasanya', 'seru', 'banget', 'thank', 'you', 'guys']</t>
+          <t>['new', 'experience', 'sehari', 'karyawan', 'indonesiarasanya', 'seru', 'banget', 'terima, kasih', 'guys']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['new', 'experience', 'hari', 'karyawan', 'indonesiarasanya', 'seru', 'banget', 'terima kasih', 'guys']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18573</v>
+        <v>31805</v>
       </c>
       <c r="C33" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,17 +1768,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['celebrate', 'new', 'tahun', 'momen', 'dengan', 'my', 'mp', 'clearer', 'swafoto', 'perfect', 'camera', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['celebrate', 'new', 'year', 'moment', 'with', 'my', 'mp', 'clearer', 'selfie', 'perfect', 'camera', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['celebrate', 'new', 'year', 'moment', 'with', 'my', 'mp', 'clearer', 'selfie', 'perfect', 'camera', 'indonesia']</t>
+          <t>['celebrate', 'new', 'momen', 'my', 'mp', 'clearer', 'swafoto', 'perfect', 'camera', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['celebrate', 'new', 'momen', 'my', 'mp', 'clearer', 'swafoto', 'perfect', 'camera', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18574</v>
+        <v>31806</v>
       </c>
       <c r="C34" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['are', 'kamu', 'ready', 'for', 'prepare', 'your', 'new', 'tahun', 'celebration', 'tonight', 'dengan', 'boncabe']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['are', 'you', 'ready', 'for', 'prepare', 'your', 'new', 'year', 'celebration', 'tonight', 'with', 'boncabe']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['are', 'you', 'ready', 'for', 'prepare', 'your', 'new', 'year', 'celebration', 'tonight', 'with', 'boncabe']</t>
+          <t>['are', 'ready', 'for', 'prepare', 'your', 'new', 'celebration', 'tonight', 'boncabe']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['are', 'ready', 'for', 'prepare', 'your', 'new', 'celebration', 'tonight', 'boncabe']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18575</v>
+        <v>31807</v>
       </c>
       <c r="C35" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,17 +1850,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['terbuat', 'dari', 'cabe', 'asli', 'pilihan', 'terbaikampbermutu', 'tinggi', 'aman', 'dikonsumsi', 'karena', 'melewati', 'proses', 'seleksi', 'ketat', 'di']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['terbuat', 'dr', 'cabe', 'asli', 'pilihan', 'terbaikampbermutu', 'aman', 'dikonsumsi', 'melewati', 'proses', 'seleksi', 'ketat']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['buat', 'dr', 'cabe', 'asli', 'pilih', 'terbaikampbermutu', 'aman', 'konsumsi', 'lewat', 'proses', 'seleksi', 'ketat']</t>
+          <t>['terbuat', 'cabe', 'asli', 'pilihan', 'terbaikampbermutu', 'aman', 'dikonsumsi', 'melewati', 'proses', 'seleksi', 'ketat']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['buat', 'cabe', 'asli', 'pilih', 'terbaikampbermutu', 'aman', 'konsumsi', 'lewat', 'proses', 'seleksi', 'ketat']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18576</v>
+        <v>31808</v>
       </c>
       <c r="C36" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,17 +1891,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['bikin', 'camilan', 'popcorn', 'kamu', 'makin', 'pedas', 'dan', 'mantap', 'pakai', 'boncabe', 'level', 'rasakan', 'sensasi', 'pedas', 'extreemnya']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['camilan', 'popcorn', 'lo', 'pedas', 'mantap', 'pake', 'boncabe', 'level', 'rasain', 'sensasi', 'pedas', 'extreemnya']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['camil', 'popcorn', 'lo', 'pedas', 'mantap', 'pake', 'boncabe', 'level', 'rasain', 'sensasi', 'pedas', 'extreemnya']</t>
+          <t>['camilan', 'popcorn', 'pedas', 'mantap', 'pakai', 'boncabe', 'level', 'rasakan', 'sensasi', 'pedas', 'extreemnya']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['camil', 'popcorn', 'pedas', 'mantap', 'pakai', 'boncabe', 'level', 'rasa', 'sensasi', 'pedas', 'extreemnya']</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18577</v>
+        <v>31809</v>
       </c>
       <c r="C37" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['ujanujan', 'begini', 'enaknya', 'taburin', 'boncabe', 'level', 'ke', 'makanan', 'apa', 'nih', 'boncabe', 'pecinta']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['ujanujan', 'gini', 'enaknya', 'taburin', 'boncabe', 'level', 'makanan', 'boncabe', 'lovers']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['ujanujan', 'gin', 'enak', 'taburin', 'boncabe', 'level', 'makan', 'boncabe', 'lovers']</t>
+          <t>['ujanujan', 'enaknya', 'taburin', 'boncabe', 'level', 'makanan', 'boncabe', 'pecinta']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['ujanujan', 'enak', 'taburin', 'boncabe', 'level', 'makan', 'boncabe', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18578</v>
+        <v>31810</v>
       </c>
       <c r="C38" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['cara', 'asyik', 'makan', 'cilok', 'ala', 'gue', 'ya', 'tinggal', 'tabur', 'boncabe', 'level', 'rasa', 'pedasnya', 'extreeem']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['asik', 'makan', 'cilok', 'ala', 'gue', 'tinggal', 'tabur', 'boncabe', 'level', 'pedasnya', 'extreeem']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['asik', 'makan', 'cilok', 'ala', 'gue', 'tinggal', 'tabur', 'boncabe', 'level', 'pedas', 'extreeem']</t>
+          <t>['asyik', 'makan', 'cilok', 'ala', 'gue', 'tinggal', 'tabur', 'boncabe', 'level', 'pedasnya', 'extreeem']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['asyik', 'makan', 'cilok', 'ala', 'gue', 'tinggal', 'tabur', 'boncabe', 'level', 'pedas', 'extreeem']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18579</v>
+        <v>31811</v>
       </c>
       <c r="C39" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,17 +2014,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['fitur', 'game', 'mode', 'di', 'ini', 'membantu', 'banget', 'saat', 'kita', 'lagi', 'fokus', 'dalam', 'pertandinganmain', 'game', 'jadi', 'makin', 'seru']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['fitur', 'game', 'mode', 'ngebantu', 'bgt', 'lg', 'focus', 'dlm', 'pertandinganmain', 'game', 'seru']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['fitur', 'game', 'mode', 'ngebantu', 'bgt', 'lg', 'focus', 'dlm', 'pertandinganmain', 'game', 'seru']</t>
+          <t>['fitur', 'game', 'mode', 'membantu', 'banget', 'fokus', 'pertandinganmain', 'game', 'seru']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['fitur', 'game', 'mode', 'bantu', 'banget', 'fokus', 'pertandinganmain', 'game', 'seru']</t>
         </is>
       </c>
     </row>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18580</v>
+        <v>31812</v>
       </c>
       <c r="C40" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['keseruan', 'bersama', 'jdid', 'tokopediaakulaku', 'lazadanantikan', 'kejutan', 'lai']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['keseruan', 'jdid', 'tokopediaakulaku', 'lazadanantikan', 'kejutan', 'lai']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['seru', 'jdid', 'tokopediaakulaku', 'lazadanantikan', 'kejut', 'lai']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18581</v>
+        <v>31813</v>
       </c>
       <c r="C41" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['kamu', 'penyuka', 'boncabe', 'level', 'rasa', 'original', 'ini', 'dia', 'karakternya', 'setuju', 'enggak', 'boncabe', 'pecinta']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['lo', 'penyuka', 'boncabe', 'level', 'original', 'karakternya', 'setuju', 'nggak', 'boncabe', 'lovers']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['lo', 'suka', 'boncabe', 'level', 'original', 'karakter', 'tuju', 'nggak', 'boncabe', 'lovers']</t>
+          <t>['penyuka', 'boncabe', 'level', 'original', 'karakternya', 'setuju', 'boncabe', 'pecinta']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['suka', 'boncabe', 'level', 'original', 'karakter', 'tuju', 'boncabe', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18582</v>
+        <v>31814</v>
       </c>
       <c r="C42" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['buat', 'kamu', 'penyuka', 'rasa', 'pedas', 'yang', 'kalem', 'kamu', 'bisa', 'coba', 'boncabe', 'level', 'rasa', 'original', 'pas', 'banget', 'ditaburin', 'di', 'atas']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['lo', 'penyuka', 'pedas', 'kalem', 'lo', 'cobain', 'boncabe', 'level', 'original', 'pas', 'banget', 'ditaburin']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['lo', 'suka', 'pedas', 'kalem', 'lo', 'cobain', 'boncabe', 'level', 'original', 'pas', 'banget', 'ditaburin']</t>
+          <t>['penyuka', 'pedas', 'kalem', 'coba', 'boncabe', 'level', 'original', 'pas', 'banget', 'ditaburin']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['suka', 'pedas', 'kalem', 'coba', 'boncabe', 'level', 'original', 'pas', 'banget', 'ditaburin']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18583</v>
+        <v>31815</v>
       </c>
       <c r="C43" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,17 +2178,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['besok', 'november', 'yang', 'di', 'jakarta', 'bandung', 'bogor', 'dan', 'sekitarnya', 'menonton', 'dewa', 'yuukgw', 'juga', 'menonton', 'lo']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['besok', 'nov', 'jakarta', 'bandung', 'bogor', 'nonton', 'dewa', 'yuukgw', 'nonton', 'lho']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['besok', 'nov', 'jakarta', 'bandung', 'bogor', 'nonton', 'dewa', 'yuukgw', 'nonton', 'lho']</t>
+          <t>['besok', 'november', 'jakarta', 'bandung', 'bogor', 'menonton', 'dewa', 'yuukgw', 'menonton', 'lo']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['besok', 'november', 'jakarta', 'bandung', 'bogor', 'tonton', 'dewa', 'yuukgw', 'tonton', 'lo']</t>
         </is>
       </c>
     </row>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18584</v>
+        <v>31816</v>
       </c>
       <c r="C44" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['congratulation', 'buat', 'para', 'pemenang', 'happy', 'banget', 'tadi', 'bisa', 'antar', 'langsung', 'ketemu', 'sama', 'kalian']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['congrat', 'pemenang', 'happy', 'banget', 'langsung', 'ketemu', 'ama']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['congrat', 'menang', 'happy', 'banget', 'langsung', 'ketemu', 'ama']</t>
+          <t>['congratulation', 'pemenang', 'happy', 'banget', 'langsung', 'ketemu']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['congratulation', 'menang', 'happy', 'banget', 'langsung', 'ketemu']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18585</v>
+        <v>31817</v>
       </c>
       <c r="C45" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,15 +2260,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['siapakah', 'dia']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18586</v>
+        <v>31818</v>
       </c>
       <c r="C46" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,15 +2301,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['saatnya', 'jadi', 'trendsetter', 'dan', 'tunjukkin', 'aksi', 'maksimal', 'dengan', 'id']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['trendsetter', 'tunjukkin', 'aksi', 'maksimal', 'id']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['trendsetter', 'tunjukkin', 'aksi', 'maksimal', 'id']</t>
         </is>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18587</v>
+        <v>31819</v>
       </c>
       <c r="C47" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['officially', 'launched', 'guyskalian', 'para', 'gamers', 'pasti', 'suka', 'sama', 'ini', 'cek', 'perfectselfieid', 'buat', 'tau', 'info', 'len']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['officially', 'launched', 'guyskalian', 'gamers', 'suka', 'cek', 'perfectselfieid', 'info', 'len']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['officially', 'launched', 'guyskalian', 'gamers', 'suka', 'cek', 'perfectselfieid', 'info', 'len']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18588</v>
+        <v>31820</v>
       </c>
       <c r="C48" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['bersiaplah', 'untuk', 'yang', 'satu', 'ini', 'perfect', 'banget']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['bersiaplah', 'perfect', 'banget']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['siap', 'perfect', 'banget']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18589</v>
+        <v>31821</v>
       </c>
       <c r="C49" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['waktu', 'aku', 'kecil']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18590</v>
+        <v>31822</v>
       </c>
       <c r="C50" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,17 +2465,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'kamu', 'yoyakarta']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['thank', 'you', 'jogja']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'jogja']</t>
+          <t>['terima, kasih', 'yoyakarta']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'yoyakarta']</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18591</v>
+        <v>31823</v>
       </c>
       <c r="C51" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['jogjahadir', 'dan', 'jangan', 'melewati', 'hari', 'ini', 'ya', 'selain', 'banyak', 'hadiah', 'tiap', 'beli', 'dan', 'ada']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['jogjahadir', 'lewatin', 'hr', 'bnyk', 'hadiah', 'beli', 'ad']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['jogjahadir', 'lewatin', 'hr', 'bnyk', 'hadiah', 'beli', 'ad']</t>
+          <t>['jogjahadir', 'melewati', 'hadiah', 'beli']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['jogjahadir', 'lewat', 'hadiah', 'beli']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18592</v>
+        <v>31824</v>
       </c>
       <c r="C52" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,17 +2547,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['jangan', 'melewati', 'sore', 'ini', 'di', 'denpasar', 'karena', 'selain', 'banyak', 'hadiah', 'tiap', 'beli', 'baka']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['lewatin', 'sore', 'denpasar', 'byk', 'hadiah', 'beli', 'baka']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['lewatin', 'sore', 'denpasar', 'byk', 'hadiah', 'beli', 'baka']</t>
+          <t>['melewati', 'sore', 'denpasar', 'hadiah', 'beli', 'baka']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['lewat', 'sore', 'denpasar', 'hadiah', 'beli', 'baka']</t>
         </is>
       </c>
     </row>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18593</v>
+        <v>31825</v>
       </c>
       <c r="C53" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['makan', 'tahu', 'bulat', 'yang', 'digoreng', 'dadakan', 'enggak', 'akan', 'nikmat', 'kalau', 'enggak', 'pakai', 'boncabe', 'sudah', 'coba']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['makan', 'bulat', 'digoreng', 'dadakan', 'nggak', 'nikmat', 'nggak', 'pake', 'boncabe', 'udah', 'coba']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['makan', 'bulat', 'goreng', 'dada', 'nggak', 'nikmat', 'nggak', 'pake', 'boncabe', 'udah', 'coba']</t>
+          <t>['makan', 'bulat', 'digoreng', 'dadakan', 'nikmat', 'pakai', 'boncabe', 'coba']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['makan', 'bulat', 'goreng', 'dada', 'nikmat', 'pakai', 'boncabe', 'coba']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18594</v>
+        <v>31826</v>
       </c>
       <c r="C54" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,17 +2629,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['cup', 'cup', 'dek', 'kakak', 'al', 'sudah', 'datang', 'kan', 'kemarin', 'terima, kasih', 'kamu', 'roxy', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['cup', 'cup', 'dek', 'kakak', 'al', 'kemaren', 'thank', 'you', 'roxy', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['cup', 'cup', 'dek', 'kakak', 'al', 'kemaren', 'thank', 'you', 'roxy', 'jakarta']</t>
+          <t>['cup', 'cup', 'dek', 'kakak', 'al', 'kemarin', 'terima, kasih', 'roxy', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['cup', 'cup', 'dek', 'kakak', 'al', 'kemarin', 'terima kasih', 'roxy', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18595</v>
+        <v>31827</v>
       </c>
       <c r="C55" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,17 +2670,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['itc', 'roxy', 'mas', 'luar', 'biasahappy', 'to', 'see', 'kamu', 'guys', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['itc', 'roxy', 'mas', 'biasahappy', 'to', 'see', 'you', 'guys', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['itc', 'roxy', 'mas', 'biasahappy', 'to', 'see', 'you', 'guys', 'indonesia']</t>
+          <t>['itc', 'roxy', 'mas', 'biasahappy', 'to', 'see', 'guys', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['itc', 'roxy', 'mas', 'biasahappy', 'to', 'see', 'guys', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18596</v>
+        <v>31828</v>
       </c>
       <c r="C56" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,17 +2711,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['jangan', 'melewati', 'besok', 'di', 'jakarta', 'karena', 'selain', 'banyak', 'hadiah', 'tiap', 'beli', 'ada', 'gue', 'juga']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['lewatin', 'bsk', 'jakarta', 'bnyk', 'hadiah', 'beli', 'gw']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['lewatin', 'bsk', 'jakarta', 'bnyk', 'hadiah', 'beli', 'gw']</t>
+          <t>['melewati', 'besok', 'jakarta', 'hadiah', 'beli', 'gue']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['lewat', 'besok', 'jakarta', 'hadiah', 'beli', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18597</v>
+        <v>31829</v>
       </c>
       <c r="C57" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -2468,15 +2748,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2487,10 +2772,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18598</v>
+        <v>31830</v>
       </c>
       <c r="C58" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2504,17 +2789,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['cuma', 'boncabe', 'level', 'yang', 'bisa', 'penuhi', 'selera', 'makan', 'pedas', 'gue', 'boncabe', 'level', 'berapa', 'yang', 'paling', 'kamu', 'suka']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['boncabe', 'level', 'penuhi', 'selera', 'makan', 'pedas', 'gue', 'boncabe', 'level', 'lo', 'suka']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['boncabe', 'level', 'penuh', 'selera', 'makan', 'pedas', 'gue', 'boncabe', 'level', 'lo', 'suka']</t>
+          <t>['boncabe', 'level', 'penuhi', 'selera', 'makan', 'pedas', 'gue', 'boncabe', 'level', 'suka']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['boncabe', 'level', 'penuh', 'selera', 'makan', 'pedas', 'gue', 'boncabe', 'level', 'suka']</t>
         </is>
       </c>
     </row>
@@ -2523,10 +2813,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18599</v>
+        <v>31831</v>
       </c>
       <c r="C59" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2540,17 +2830,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'kamu', 'samarinda', 'tunggu', 'aku', 'di', 'kota', 'kota', 'selanjutnya', 'bersama', 'indonesia', 'mp']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['thank', 'you', 'samarinda', 'tunggu', 'kota', 'kota', 'indonesia', 'mp']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'samarinda', 'tunggu', 'kota', 'kota', 'indonesia', 'mp']</t>
+          <t>['terima, kasih', 'samarinda', 'tunggu', 'kota', 'kota', 'indonesia', 'mp']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'samarinda', 'tunggu', 'kota', 'kota', 'indonesia', 'mp']</t>
         </is>
       </c>
     </row>
@@ -2559,10 +2854,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18600</v>
+        <v>31832</v>
       </c>
       <c r="C60" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2576,17 +2871,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['jangan', 'lupa', 'hari', 'ini', 'pak', 'vivo', 'grand', 'launch', 'di', 'televisi', 'nasinal', 'digital', 'media', 'partner', 'dan', 'indonesia', 'offici']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['lupa', 'hr', 'pk', 'vivo', 'grand', 'launch', 'tv', 'nasinal', 'digital', 'media', 'partner', 'indonesia', 'offici']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['lupa', 'hr', 'pk', 'vivo', 'grand', 'launch', 'tv', 'nasinal', 'digital', 'media', 'partner', 'indonesia', 'offici']</t>
+          <t>['lupa', 'vivo', 'grand', 'launch', 'televisi', 'nasinal', 'digital', 'media', 'partner', 'indonesia', 'offici']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['lupa', 'vivo', 'grand', 'launch', 'televisi', 'nasinal', 'digital', 'media', 'partner', 'indonesia', 'offici']</t>
         </is>
       </c>
     </row>
@@ -2595,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18601</v>
+        <v>31833</v>
       </c>
       <c r="C61" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2612,17 +2912,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['ini', 'dia', 'camilan', 'favorit', 'yang', 'enggak', 'bakal', 'gue', 'tolak', 'tahu', 'goreng', 'bertabur', 'boncabe', 'level', 'di', 'atasnya', 'pedasnya', 'extr']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['camilan', 'favorit', 'nggak', 'gue', 'tolak', 'goreng', 'bertabur', 'boncabe', 'level', 'atasnya', 'pedasnya', 'extr']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['camil', 'favorit', 'nggak', 'gue', 'tolak', 'goreng', 'tabur', 'boncabe', 'level', 'atas', 'pedas', 'extr']</t>
+          <t>['camilan', 'favorit', 'gue', 'tolak', 'goreng', 'bertabur', 'boncabe', 'level', 'atasnya', 'pedasnya', 'extr']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['camil', 'favorit', 'gue', 'tolak', 'goreng', 'tabur', 'boncabe', 'level', 'atas', 'pedas', 'extr']</t>
         </is>
       </c>
     </row>
@@ -2631,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18602</v>
+        <v>31834</v>
       </c>
       <c r="C62" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2648,15 +2953,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['hari', 'lagi', 'penasaran', 'sama', 'kecanggihan', 'mp', 'dari', 'indonesia', 'catat', 'tanggalnya']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['penasaran', 'kecanggihan', 'mp', 'indonesia', 'catat', 'tanggalnya']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['penasaran', 'canggih', 'mp', 'indonesia', 'catat', 'tanggal']</t>
         </is>
@@ -2667,10 +2977,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18603</v>
+        <v>31835</v>
       </c>
       <c r="C63" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2684,15 +2994,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['makan', 'ayam', 'goreng', 'yang', 'dimasak', 'pakai', 'kobe', 'tepung', 'kentucky', 'supercripsy', 'itu', 'tidak', 'cukup', 'deh', 'renyah', 'amp', 'lezatnya', 'bikin', 'ket']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['makan', 'ayam', 'goreng', 'dimasak', 'pakai', 'kobe', 'tepung', 'kentucky', 'supercripsy', 'deh', 'renyah', 'lezatnya', 'ket']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>['makan', 'ayam', 'goreng', 'masak', 'pakai', 'kobe', 'tepung', 'kentucky', 'supercripsy', 'deh', 'renyah', 'lezat', 'ket']</t>
         </is>
@@ -2703,10 +3018,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18604</v>
+        <v>31836</v>
       </c>
       <c r="C64" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2720,15 +3035,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['makan', 'ayam', 'goreng', 'yang', 'dimasak', 'pakai', 'kobe', 'tepung', 'kentucky', 'supercripsy', 'itu', 'tidak', 'cukup', 'deh', 'renyah', 'amp', 'lezatnya', 'bikin', 'ket']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['makan', 'ayam', 'goreng', 'dimasak', 'pakai', 'kobe', 'tepung', 'kentucky', 'supercripsy', 'deh', 'renyah', 'lezatnya', 'ket']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['makan', 'ayam', 'goreng', 'masak', 'pakai', 'kobe', 'tepung', 'kentucky', 'supercripsy', 'deh', 'renyah', 'lezat', 'ket']</t>
         </is>
@@ -2739,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18605</v>
+        <v>31837</v>
       </c>
       <c r="C65" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -2752,15 +3072,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2771,10 +3096,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18606</v>
+        <v>31838</v>
       </c>
       <c r="C66" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2788,15 +3113,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['besok', 'senin']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['besok', 'senin']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['besok', 'senin']</t>
         </is>
@@ -2807,10 +3137,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18607</v>
+        <v>31839</v>
       </c>
       <c r="C67" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2824,15 +3154,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'minggu', 'alllsukses', 'semua']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['selamat', 'minggu', 'alllsukses']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['selamat', 'minggu', 'alllsukses']</t>
         </is>
@@ -2843,10 +3178,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18608</v>
+        <v>31840</v>
       </c>
       <c r="C68" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2860,15 +3195,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['rt', 'kisah', 'kehidupan']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['kisah', 'kehidupan']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['kisah', 'hidup']</t>
         </is>
@@ -2879,10 +3219,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18609</v>
+        <v>31841</v>
       </c>
       <c r="C69" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2896,17 +3236,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['rt', 'happy', 'birthday', 'tahun', 'to', 'wish', 'kamu', 'always', 'the', 'best']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['happy', 'birthday', 'th', 'to', 'wish', 'you', 'always', 'the', 'best']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['happy', 'birthday', 'th', 'to', 'wish', 'you', 'always', 'the', 'best']</t>
+          <t>['happy', 'birthday', 'to', 'wish', 'always', 'the', 'best']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['happy', 'birthday', 'to', 'wish', 'always', 'the', 'best']</t>
         </is>
       </c>
     </row>
@@ -2915,10 +3260,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18610</v>
+        <v>31842</v>
       </c>
       <c r="C70" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2932,15 +3277,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['balada', 'al', 'amp', 'akhirnya', 'tayang', 'amp', 'kalian', 'bisa', 'tonton', 'di', 'prilly', 'mau', 'ngomon']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['balada', 'al', 'tayang', 'tonton', 'prilly', 'ngomon']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['balada', 'al', 'tayang', 'tonton', 'prilly', 'ngomon']</t>
         </is>
@@ -2951,10 +3301,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18611</v>
+        <v>31843</v>
       </c>
       <c r="C71" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2968,17 +3318,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['penasaran', 'sama', 'kelanjutan', 'webseries', 'gue', 'amp', 'nantikan', 'balada', 'al', 'amp', 'prilly', 'pengagum', 'rahasia', 'besok']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['penasaran', 'kelanjutan', 'webseries', 'gw', 'nantikan', 'balada', 'al', 'prilly', 'pengagum', 'rahasia', 'besok']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['penasaran', 'lanjut', 'webseries', 'gw', 'nanti', 'balada', 'al', 'prilly', 'kagum', 'rahasia', 'besok']</t>
+          <t>['penasaran', 'kelanjutan', 'webseries', 'gue', 'nantikan', 'balada', 'al', 'prilly', 'pengagum', 'rahasia', 'besok']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['penasaran', 'lanjut', 'webseries', 'gue', 'nanti', 'balada', 'al', 'prilly', 'kagum', 'rahasia', 'besok']</t>
         </is>
       </c>
     </row>
@@ -2987,10 +3342,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18612</v>
+        <v>31844</v>
       </c>
       <c r="C72" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3004,15 +3359,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['ini', 'dia', 'yang', 'selalu', 'dicari', 'saat', 'makanan', 'sudah', 'tersaji', 'boncabe', 'level', 'rasa', 'original', 'extrem', 'pedasnya', 'tak', 'tertaha']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['dicari', 'makanan', 'tersaji', 'boncabe', 'level', 'original', 'extrem', 'pedasnya', 'tertaha']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['cari', 'makan', 'saji', 'boncabe', 'level', 'original', 'extrem', 'pedas', 'tertaha']</t>
         </is>
@@ -3023,10 +3383,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18613</v>
+        <v>31845</v>
       </c>
       <c r="C73" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3040,17 +3400,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['make', 'your', 'sushi', 'more', 'tasty', 'dengan', 'boncabe', 'level']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['make', 'your', 'sushi', 'more', 'tasty', 'with', 'boncabe', 'level']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['make', 'your', 'sushi', 'more', 'tasty', 'with', 'boncabe', 'level']</t>
+          <t>['make', 'your', 'sushi', 'more', 'tasty', 'boncabe', 'level']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['make', 'your', 'sushi', 'more', 'tasty', 'boncabe', 'level']</t>
         </is>
       </c>
     </row>
@@ -3059,10 +3424,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18614</v>
+        <v>31846</v>
       </c>
       <c r="C74" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3076,17 +3441,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['buat', 'semua', 'teman', 'gue', 'semoga', 'pada', 'sehat', 'selalau', 'banyak', 'rezekydan', 'bahagia', 'amin']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['temen', 'gw', 'semoga', 'sehat', 'selalau', 'rezekydan', 'bahagia', 'aminnnnn']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['temen', 'gw', 'moga', 'sehat', 'lalau', 'rezekydan', 'bahagia', 'aminnnnn']</t>
+          <t>['teman', 'gue', 'semoga', 'sehat', 'selalau', 'rezekydan', 'bahagia', 'amin']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['teman', 'gue', 'moga', 'sehat', 'lalau', 'rezekydan', 'bahagia', 'amin']</t>
         </is>
       </c>
     </row>
@@ -3095,10 +3465,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18615</v>
+        <v>31847</v>
       </c>
       <c r="C75" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3112,15 +3482,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['cuma', 'kobe', 'tepung', 'kentucky', 'supercrispy', 'yang', 'renyahnya', 'pasti', 'dan', 'rasanya', 'pas', 'di', 'hati', 'cek', 'cara', 'masaknya', 'di', 'website']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['kobe', 'tepung', 'kentucky', 'supercrispy', 'renyahnya', 'pas', 'hati', 'cek', 'masaknya', 'website']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['kobe', 'tepung', 'kentucky', 'supercrispy', 'renyah', 'pas', 'hati', 'cek', 'masak', 'website']</t>
         </is>
@@ -3131,10 +3506,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18616</v>
+        <v>31848</v>
       </c>
       <c r="C76" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3148,15 +3523,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -3167,10 +3547,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18617</v>
+        <v>31849</v>
       </c>
       <c r="C77" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3184,17 +3564,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['this', 'is', 'it', 'kelanjutan', 'webseries', 'gue', 'amp', 'pahlawan', 'merah', 'putih', 'bisa', 'tonton', 'di', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['this', 'is', 'it', 'kelanjutan', 'webseries', 'gw', 'pahlawan', 'merah', 'putih', 'tonton', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['this', 'is', 'it', 'lanjut', 'webseries', 'gw', 'pahlawan', 'merah', 'putih', 'tonton', 'indonesia']</t>
+          <t>['this', 'is', 'it', 'kelanjutan', 'webseries', 'gue', 'pahlawan', 'merah', 'putih', 'tonton', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'it', 'lanjut', 'webseries', 'gue', 'pahlawan', 'merah', 'putih', 'tonton', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3203,10 +3588,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18618</v>
+        <v>31850</v>
       </c>
       <c r="C78" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3220,17 +3605,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['saksikan', 'kelanjutan', 'webseries', 'gue', 'amp', 'di', 'sosial', 'media', 'channel', 'indonesia', 'besok', 'ya', 'sudah', 'pe']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['saksikan', 'kelanjutan', 'webseries', 'gw', 'social', 'media', 'channel', 'indonesia', 'besok', 'pe']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['saksi', 'lanjut', 'webseries', 'gw', 'social', 'media', 'channel', 'indonesia', 'besok', 'pe']</t>
+          <t>['saksikan', 'kelanjutan', 'webseries', 'gue', 'sosial', 'media', 'channel', 'indonesia', 'besok', 'pe']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['saksi', 'lanjut', 'webseries', 'gue', 'sosial', 'media', 'channel', 'indonesia', 'besok', 'pe']</t>
         </is>
       </c>
     </row>
@@ -3239,10 +3629,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18619</v>
+        <v>31851</v>
       </c>
       <c r="C79" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3256,17 +3646,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['tahu', 'siapa', 'yang', 'di', 'belakang', 'gue']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['gw']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['gw']</t>
+          <t>['gue']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['gue']</t>
         </is>
       </c>
     </row>
@@ -3275,10 +3670,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18620</v>
+        <v>31852</v>
       </c>
       <c r="C80" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3292,15 +3687,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['saudara', 'saudara', 'gue']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['saudara', 'saudara', 'gue']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['saudara', 'saudara', 'gue']</t>
         </is>
@@ -3311,10 +3711,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18621</v>
+        <v>31853</v>
       </c>
       <c r="C81" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3328,15 +3728,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['saat', 'malam', 'minggu', 'sendiriangimana', 'rasanya']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['malam', 'minggu', 'sendiriangimana']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['malam', 'minggu', 'sendiriangimana']</t>
         </is>
@@ -3347,10 +3752,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18622</v>
+        <v>31854</v>
       </c>
       <c r="C82" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3364,17 +3769,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['ini', 'dia', 'webseries', 'gue', 'bersama', 'indonesia', 'balada', 'alamp', 'ep', 'dendam', 'sih', 'premansaksikan', 'di']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['webseries', 'gw', 'indonesia', 'balada', 'alamp', 'ep', 'dendam', 'premansaksikan']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['webseries', 'gw', 'indonesia', 'balada', 'alamp', 'ep', 'dendam', 'premansaksikan']</t>
+          <t>['webseries', 'gue', 'indonesia', 'balada', 'alamp', 'ep', 'dendam', 'premansaksikan']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['webseries', 'gue', 'indonesia', 'balada', 'alamp', 'ep', 'dendam', 'premansaksikan']</t>
         </is>
       </c>
     </row>
@@ -3383,10 +3793,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18623</v>
+        <v>31855</v>
       </c>
       <c r="C83" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3400,17 +3810,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['saksikan', 'webseries', 'terbaru', 'gue', 'dan', 'episode', 'dendam', 'sih', 'preman', 'besok', 'di', 'sosial', 'media', 'channel']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['saksikan', 'webseries', 'terbaru', 'gw', 'episode', 'dendam', 'preman', 'besok', 'social', 'media', 'channel']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['saksi', 'webseries', 'baru', 'gw', 'episode', 'dendam', 'preman', 'besok', 'social', 'media', 'channel']</t>
+          <t>['saksikan', 'webseries', 'terbaru', 'gue', 'episode', 'dendam', 'preman', 'besok', 'sosial', 'media', 'channel']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['saksi', 'webseries', 'baru', 'gue', 'episode', 'dendam', 'preman', 'besok', 'sosial', 'media', 'channel']</t>
         </is>
       </c>
     </row>
@@ -3419,10 +3834,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18624</v>
+        <v>31856</v>
       </c>
       <c r="C84" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3436,17 +3851,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['berapa', 'jumlah', 'dan', 'apa', 'nama', 'fan', 'base', 'gwpingin', 'sayang', 'halo']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['nama', 'fans', 'base', 'gwpingin', 'say', 'hello']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['nama', 'fans', 'base', 'gwpingin', 'say', 'hello']</t>
+          <t>['nama', 'fan', 'base', 'gwpingin', 'sayang', 'halo']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['nama', 'fan', 'base', 'gwpingin', 'sayang', 'halo']</t>
         </is>
       </c>
     </row>
@@ -3455,10 +3875,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18625</v>
+        <v>31857</v>
       </c>
       <c r="C85" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3472,15 +3892,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['ku', 'ingin', 'rasakan', 'cinta']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['ku', 'rasakan', 'cinta']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['ku', 'rasa', 'cinta']</t>
         </is>
@@ -3491,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18626</v>
+        <v>31858</v>
       </c>
       <c r="C86" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3508,15 +3933,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['cemburu']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>['cemburu']</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>['cemburu']</t>
         </is>
@@ -3527,10 +3957,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18627</v>
+        <v>31859</v>
       </c>
       <c r="C87" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3544,17 +3974,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['sebelum', 'after', 'telkom', 'via']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['before', 'after', 'telkom', 'via']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['before', 'after', 'telkom', 'via']</t>
+          <t>['after', 'telkom', 'via']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['after', 'telkom', 'via']</t>
         </is>
       </c>
     </row>
@@ -3563,10 +3998,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18628</v>
+        <v>31860</v>
       </c>
       <c r="C88" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3580,15 +4015,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['aku', 'kangen', 'dan', 'aku', 'rindu']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['kangen', 'rindu']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['kangen', 'rindu']</t>
         </is>
@@ -3599,10 +4039,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18629</v>
+        <v>31861</v>
       </c>
       <c r="C89" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3616,17 +4056,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['rt', 'tidak, pakai', 'rambut', 'kalau', 'bisa', 'tidak, pakai', 'pala', 'sudah']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['gapake', 'rambut', 'gapake', 'pala', 'dah']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['gapake', 'rambut', 'gapake', 'pala', 'dah']</t>
+          <t>['tidak, pakai', 'rambut', 'tidak, pakai', 'pala']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['tidak pakai', 'rambut', 'tidak pakai', 'pala']</t>
         </is>
       </c>
     </row>
@@ -3635,10 +4080,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18630</v>
+        <v>31862</v>
       </c>
       <c r="C90" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3652,17 +4097,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['lebih', 'suka', 'cowok', 'yang']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['suka', 'cowo']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['suka', 'cowo']</t>
+          <t>['suka', 'cowok']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['suka', 'cowok']</t>
         </is>
       </c>
     </row>
@@ -3671,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18631</v>
+        <v>31863</v>
       </c>
       <c r="C91" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3688,15 +4138,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['rt', 'lagu', 'mana', 'yang', 'paling', 'kalian', 'suka']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['lagu', 'suka']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['lagu', 'suka']</t>
         </is>
@@ -3707,10 +4162,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18632</v>
+        <v>31864</v>
       </c>
       <c r="C92" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3724,15 +4179,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['lagu', 'mana', 'yang', 'paling', 'kalian', 'suka']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['lagu', 'suka']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['lagu', 'suka']</t>
         </is>
@@ -3743,10 +4203,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18633</v>
+        <v>31865</v>
       </c>
       <c r="C93" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3760,15 +4220,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt', 'kamu', 'ganteng', 'nak']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['ganteng', 'nak']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['ganteng', 'nak']</t>
         </is>
@@ -3779,10 +4244,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18634</v>
+        <v>31866</v>
       </c>
       <c r="C94" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3796,17 +4261,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['rt', 'mau', 'kamu', 'yang', 'apelin', 'dong']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['apelin', 'donk']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['apelin', 'donk']</t>
+          <t>['apelin']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['apelin']</t>
         </is>
       </c>
     </row>
@@ -3815,10 +4285,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18635</v>
+        <v>31867</v>
       </c>
       <c r="C95" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3832,15 +4302,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['selamat', 'malam', 'minggu', 'sudah', 'ada', 'yang', 'apel', 'belum']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['selamat', 'malam', 'minggu', 'apel']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['selamat', 'malam', 'minggu', 'apel']</t>
         </is>
@@ -3851,10 +4326,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18636</v>
+        <v>31868</v>
       </c>
       <c r="C96" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3868,17 +4343,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['yang', 'masih', 'jombloberdoa', 'ya', 'siapa', 'tahu', 'malam', 'ini', 'ada', 'yang', 'tiba', 'tiba', 'menyatakan', 'cinta']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['jombloberdoa', 'malam', 'nyatakan', 'cinta']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['jombloberdoa', 'malam', 'nyata', 'cinta']</t>
+          <t>['jombloberdoa', 'malam', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['jombloberdoa', 'malam', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -3887,10 +4367,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18637</v>
+        <v>31869</v>
       </c>
       <c r="C97" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3904,15 +4384,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['coba', 'tebak', 'siapa', 'foto', 'sebelah']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['coba', 'tebak', 'foto', 'sebelah']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['coba', 'tebak', 'foto', 'belah']</t>
         </is>
@@ -3923,10 +4408,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18638</v>
+        <v>31870</v>
       </c>
       <c r="C98" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3940,15 +4425,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['channel', 'resmi', 'adp']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>['channel', 'resmi', 'adp']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>['channel', 'resmi', 'adp']</t>
         </is>
@@ -3959,10 +4449,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18639</v>
+        <v>31871</v>
       </c>
       <c r="C99" t="n">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3976,17 +4466,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['kapan', 'lagi', 'bisa', 'memiliki', 'jam', 'tangan', 'kesayangan', 'gueupload', 'fotoselfie', 'in', 'the', 'darklo', 'di', 'seka']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['milikin', 'jam', 'tangan', 'kesayangan', 'gueupload', 'fotoselfie', 'in', 'the', 'darklo', 'seka']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['milikin', 'jam', 'tangan', 'sayang', 'gueupload', 'fotoselfie', 'in', 'the', 'darklo', 'seka']</t>
+          <t>['memiliki', 'jam', 'tangan', 'kesayangan', 'gueupload', 'fotoselfie', 'in', 'the', 'darklo', 'seka']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['milik', 'jam', 'tangan', 'sayang', 'gueupload', 'fotoselfie', 'in', 'the', 'darklo', 'seka']</t>
         </is>
       </c>
     </row>
